--- a/Food List.xlsx
+++ b/Food List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub2\-FOOD-WEBAPP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8317068-3A1A-44DA-A0A0-BF0C4CAF007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17175" windowHeight="6150"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,11 +463,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,6 +475,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -515,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,9 +561,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,6 +613,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,65 +806,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -852,8 +902,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B4" t="s">
@@ -862,7 +912,7 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E4" t="s">
@@ -871,7 +921,7 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
@@ -880,7 +930,7 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K4" t="s">
@@ -890,8 +940,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
@@ -900,7 +950,7 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E5" t="s">
@@ -909,7 +959,7 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H5" t="s">
@@ -918,7 +968,7 @@
       <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K5" t="s">
@@ -928,8 +978,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
@@ -938,7 +988,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E6" t="s">
@@ -947,7 +997,7 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H6" t="s">
@@ -956,7 +1006,7 @@
       <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K6" t="s">
@@ -966,8 +1016,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B7" t="s">
@@ -976,7 +1026,7 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E7" t="s">
@@ -985,7 +1035,7 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H7" t="s">
@@ -994,7 +1044,7 @@
       <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K7" t="s">
@@ -1004,8 +1054,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B8" t="s">
@@ -1014,7 +1064,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E8" t="s">
@@ -1023,7 +1073,7 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H8" t="s">
@@ -1032,7 +1082,7 @@
       <c r="I8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K8" t="s">
@@ -1042,8 +1092,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B9" t="s">
@@ -1052,7 +1102,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E9" t="s">
@@ -1061,7 +1111,7 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H9" t="s">
@@ -1070,7 +1120,7 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K9" t="s">
@@ -1080,8 +1130,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
@@ -1090,7 +1140,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
@@ -1099,7 +1149,7 @@
       <c r="F10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H10" t="s">
@@ -1108,7 +1158,7 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K10" t="s">
@@ -1118,8 +1168,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
@@ -1128,7 +1178,7 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
@@ -1137,7 +1187,7 @@
       <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H11" t="s">
@@ -1146,7 +1196,7 @@
       <c r="I11" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>111</v>
       </c>
       <c r="K11" t="s">
@@ -1156,8 +1206,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B12" t="s">
@@ -1166,7 +1216,7 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E12" t="s">
@@ -1175,7 +1225,7 @@
       <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H12" t="s">
@@ -1184,7 +1234,7 @@
       <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>112</v>
       </c>
       <c r="K12" t="s">
@@ -1194,8 +1244,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B13" t="s">
@@ -1204,7 +1254,7 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
@@ -1213,7 +1263,7 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H13" t="s">
@@ -1222,7 +1272,7 @@
       <c r="I13" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>113</v>
       </c>
       <c r="K13" t="s">
@@ -1232,51 +1282,51 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1289,52 +1339,52 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId11"/>
-    <hyperlink ref="D5" r:id="rId12"/>
-    <hyperlink ref="D6" r:id="rId13"/>
-    <hyperlink ref="D7" r:id="rId14"/>
-    <hyperlink ref="D8" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="D9" r:id="rId17"/>
-    <hyperlink ref="D11" r:id="rId18"/>
-    <hyperlink ref="D12" r:id="rId19"/>
-    <hyperlink ref="D13" r:id="rId20"/>
-    <hyperlink ref="G4" r:id="rId21"/>
-    <hyperlink ref="G5" r:id="rId22"/>
-    <hyperlink ref="G6" r:id="rId23"/>
-    <hyperlink ref="G7" r:id="rId24"/>
-    <hyperlink ref="G8" r:id="rId25"/>
-    <hyperlink ref="G9" r:id="rId26"/>
-    <hyperlink ref="G10" r:id="rId27"/>
-    <hyperlink ref="G11" r:id="rId28"/>
-    <hyperlink ref="G12" r:id="rId29"/>
-    <hyperlink ref="G13" r:id="rId30"/>
-    <hyperlink ref="J4" r:id="rId31"/>
-    <hyperlink ref="J5" r:id="rId32"/>
-    <hyperlink ref="J6" r:id="rId33"/>
-    <hyperlink ref="J7" r:id="rId34"/>
-    <hyperlink ref="J8" r:id="rId35"/>
-    <hyperlink ref="J9" r:id="rId36"/>
-    <hyperlink ref="J10" r:id="rId37"/>
-    <hyperlink ref="J11" r:id="rId38"/>
-    <hyperlink ref="J12" r:id="rId39"/>
-    <hyperlink ref="J13" r:id="rId40"/>
-    <hyperlink ref="B16" r:id="rId41"/>
-    <hyperlink ref="B17" r:id="rId42"/>
-    <hyperlink ref="B19" r:id="rId43"/>
-    <hyperlink ref="B18" r:id="rId44"/>
-    <hyperlink ref="B20" r:id="rId45"/>
-    <hyperlink ref="B21" r:id="rId46"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G12" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J6" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J7" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B20" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId47"/>
@@ -1342,24 +1392,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
